--- a/data/trans_orig/Q23_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q23_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F671D95C-6920-4D46-AF66-B8DD8765A83E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1139EF2-F7C3-42E0-BA77-1C219E1F5161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{448EB608-9672-4CC2-B629-5874BD842F5A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{69C6F8AE-1DA3-497A-9315-91A3C5D26D7D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -75,19 +75,19 @@
     <t>11,15%</t>
   </si>
   <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>14,08%</t>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
   </si>
   <si>
     <t>30,26%</t>
   </si>
   <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>37,25%</t>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
   </si>
   <si>
     <t>16,12%</t>
@@ -96,814 +96,814 @@
     <t>13,69%</t>
   </si>
   <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>Tercer Cuartil</t>
+  </si>
+  <si>
+    <t>25,73%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>34,94%</t>
+  </si>
+  <si>
+    <t>26,34%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>Segundo Cuartil</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>12,94%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>14,78%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>Primer Cuartil</t>
+  </si>
+  <si>
+    <t>47,61%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>51,4%</t>
+  </si>
+  <si>
+    <t>26,9%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>32,97%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>38,92%</t>
+  </si>
+  <si>
+    <t>45,71%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>38,35%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>35,75%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>33,39%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>29,11%</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>22,13%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>23,95%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>23,89%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>23,31%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>29,72%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
     <t>18,65%</t>
   </si>
   <si>
-    <t>Tercer Cuartil</t>
-  </si>
-  <si>
-    <t>25,73%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>28,05%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>34,78%</t>
-  </si>
-  <si>
-    <t>26,34%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>Segundo Cuartil</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>19,44%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>Primer Cuartil</t>
-  </si>
-  <si>
-    <t>47,61%</t>
-  </si>
-  <si>
-    <t>43,42%</t>
-  </si>
-  <si>
-    <t>51,84%</t>
-  </si>
-  <si>
-    <t>26,9%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>33,27%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>38,9%</t>
-  </si>
-  <si>
-    <t>45,66%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,38%</t>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>33,64%</t>
+  </si>
+  <si>
+    <t>38,21%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>29,91%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2012 (Tasa respuesta: 49,24%)</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
+  </si>
+  <si>
+    <t>34,3%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>19,7%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>20,64%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>42,29%</t>
+  </si>
+  <si>
+    <t>49,99%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>45,02%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>23,79%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>19,84%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>28,89%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
+  </si>
+  <si>
+    <t>34,2%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>30,65%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>44,91%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>45,85%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>33,84%</t>
+  </si>
+  <si>
+    <t>43,62%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>13,09%</t>
+  </si>
+  <si>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>20,09%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>28,85%</t>
+  </si>
+  <si>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
   </si>
   <si>
     <t>20,38%</t>
   </si>
   <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>10,86%</t>
-  </si>
-  <si>
-    <t>14,34%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>33,28%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>34,09%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>24,56%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>50,9%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>47,6%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>25,96%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>12,71%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>12,3%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>18,94%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,65%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>31,39%</t>
-  </si>
-  <si>
-    <t>37,35%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>21,72%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>24,43%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
   </si>
   <si>
     <t>30,92%</t>
   </si>
   <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2012 (Tasa respuesta: 49,24%)</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>19,17%</t>
-  </si>
-  <si>
-    <t>29,99%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
-  </si>
-  <si>
-    <t>37,9%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>39,26%</t>
-  </si>
-  <si>
-    <t>13,91%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>28,62%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
-  </si>
-  <si>
-    <t>37,28%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>32,6%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>30,1%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>16,46%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>27,29%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>46,0%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>25,85%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>23,97%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,52%</t>
-  </si>
-  <si>
-    <t>23,17%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>26,31%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>30,94%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
-  </si>
-  <si>
-    <t>34,05%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>31,46%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>38,61%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
     <t>33,32%</t>
   </si>
   <si>
-    <t>31,72%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
+    <t>31,68%</t>
+  </si>
+  <si>
+    <t>35,11%</t>
   </si>
 </sst>
 </file>
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB319154-F2FE-43B5-9462-CA28593244FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFFF228-64F7-48CD-8D4E-5C6C9B715D8B}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1780,10 +1780,10 @@
         <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1798,13 +1798,13 @@
         <v>242484</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>113</v>
@@ -1813,13 +1813,13 @@
         <v>116624</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>354</v>
@@ -1828,13 +1828,13 @@
         <v>359108</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1849,13 +1849,13 @@
         <v>306774</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>189</v>
@@ -1864,13 +1864,13 @@
         <v>190123</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M12" s="7">
         <v>491</v>
@@ -1879,13 +1879,13 @@
         <v>496896</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,7 +1941,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1953,13 +1953,13 @@
         <v>39381</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>41</v>
@@ -1968,13 +1968,13 @@
         <v>43754</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>77</v>
@@ -1983,13 +1983,13 @@
         <v>83135</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,13 +2004,13 @@
         <v>108845</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H15" s="7">
         <v>70</v>
@@ -2019,13 +2019,13 @@
         <v>72222</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>176</v>
@@ -2034,13 +2034,13 @@
         <v>181066</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,13 +2055,13 @@
         <v>48679</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -2070,13 +2070,13 @@
         <v>32181</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -2085,13 +2085,13 @@
         <v>80860</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2106,13 +2106,13 @@
         <v>45086</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -2121,13 +2121,13 @@
         <v>30548</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -2136,13 +2136,13 @@
         <v>75634</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2210,13 +2210,13 @@
         <v>192997</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H19" s="7">
         <v>208</v>
@@ -2225,13 +2225,13 @@
         <v>218333</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M19" s="7">
         <v>392</v>
@@ -2240,13 +2240,13 @@
         <v>411330</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,13 +2261,13 @@
         <v>569454</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="H20" s="7">
         <v>342</v>
@@ -2276,28 +2276,28 @@
         <v>352318</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M20" s="7">
         <v>896</v>
       </c>
       <c r="N20" s="7">
-        <v>921772</v>
+        <v>921771</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,13 +2312,13 @@
         <v>385522</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>139</v>
+        <v>75</v>
       </c>
       <c r="F21" s="7" t="s">
         <v>140</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="H21" s="7">
         <v>176</v>
@@ -2327,13 +2327,13 @@
         <v>180432</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M21" s="7">
         <v>560</v>
@@ -2342,13 +2342,13 @@
         <v>565954</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,13 +2363,13 @@
         <v>641679</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H22" s="7">
         <v>276</v>
@@ -2378,13 +2378,13 @@
         <v>278236</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M22" s="7">
         <v>908</v>
@@ -2393,13 +2393,13 @@
         <v>919915</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,7 +2441,7 @@
         <v>2756</v>
       </c>
       <c r="N23" s="7">
-        <v>2818971</v>
+        <v>2818970</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -2474,7 +2474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D99284C4-9D50-4942-9D54-8CE3D6B45E0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF467585-9C58-44A0-B555-EC46F4765CFC}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2491,7 +2491,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2598,13 +2598,13 @@
         <v>100358</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>71</v>
@@ -2613,13 +2613,13 @@
         <v>76646</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>64</v>
+        <v>164</v>
       </c>
       <c r="M4" s="7">
         <v>159</v>
@@ -2628,13 +2628,13 @@
         <v>177005</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,13 +2649,13 @@
         <v>161170</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>62</v>
@@ -2664,13 +2664,13 @@
         <v>64269</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>211</v>
@@ -2679,13 +2679,13 @@
         <v>225439</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,13 +2700,13 @@
         <v>114632</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="H6" s="7">
         <v>37</v>
@@ -2715,13 +2715,13 @@
         <v>40325</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>145</v>
@@ -2730,13 +2730,13 @@
         <v>154958</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>113</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2751,13 @@
         <v>320933</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H7" s="7">
         <v>79</v>
@@ -2766,13 +2766,13 @@
         <v>85077</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M7" s="7">
         <v>386</v>
@@ -2781,13 +2781,13 @@
         <v>406010</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,13 +2855,13 @@
         <v>189502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>195</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2870,13 +2870,13 @@
         <v>177838</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="M9" s="7">
         <v>326</v>
@@ -2885,13 +2885,13 @@
         <v>367340</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2906,13 @@
         <v>355816</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="H10" s="7">
         <v>251</v>
@@ -2921,13 +2921,13 @@
         <v>272576</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>26</v>
       </c>
       <c r="M10" s="7">
         <v>591</v>
@@ -2936,13 +2936,13 @@
         <v>628392</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2957,13 @@
         <v>229247</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>120</v>
+        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>145</v>
@@ -2972,13 +2972,13 @@
         <v>156973</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>210</v>
+        <v>125</v>
       </c>
       <c r="M11" s="7">
         <v>360</v>
@@ -2987,13 +2987,13 @@
         <v>386220</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,13 +3008,13 @@
         <v>403912</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H12" s="7">
         <v>232</v>
@@ -3023,13 +3023,13 @@
         <v>251332</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M12" s="7">
         <v>611</v>
@@ -3038,13 +3038,13 @@
         <v>655244</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>214</v>
+        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,7 +3100,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3112,13 +3112,13 @@
         <v>53144</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H14" s="7">
         <v>46</v>
@@ -3127,13 +3127,13 @@
         <v>49913</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>115</v>
+        <v>230</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>90</v>
@@ -3142,13 +3142,13 @@
         <v>103057</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,13 +3163,13 @@
         <v>94244</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>230</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="H15" s="7">
         <v>76</v>
@@ -3178,13 +3178,13 @@
         <v>80908</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M15" s="7">
         <v>165</v>
@@ -3193,13 +3193,13 @@
         <v>175152</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>42</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,13 +3214,13 @@
         <v>48993</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>143</v>
+        <v>242</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -3229,13 +3229,13 @@
         <v>37204</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -3244,13 +3244,13 @@
         <v>86196</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3265,13 @@
         <v>49750</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -3280,13 +3280,13 @@
         <v>40016</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>251</v>
+        <v>21</v>
       </c>
       <c r="M17" s="7">
         <v>75</v>
@@ -3295,13 +3295,13 @@
         <v>89766</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,13 +3369,13 @@
         <v>343004</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>192</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>276</v>
@@ -3384,13 +3384,13 @@
         <v>304397</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>258</v>
+        <v>189</v>
       </c>
       <c r="M19" s="7">
         <v>575</v>
@@ -3399,13 +3399,13 @@
         <v>647402</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3420,13 @@
         <v>611230</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>264</v>
+        <v>155</v>
       </c>
       <c r="H20" s="7">
         <v>389</v>
@@ -3435,13 +3435,13 @@
         <v>417752</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M20" s="7">
         <v>967</v>
@@ -3450,13 +3450,13 @@
         <v>1028982</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>268</v>
+        <v>173</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3471,13 @@
         <v>392871</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H21" s="7">
         <v>216</v>
@@ -3486,13 +3486,13 @@
         <v>234503</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M21" s="7">
         <v>586</v>
@@ -3501,13 +3501,13 @@
         <v>627374</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,10 +3522,10 @@
         <v>774596</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>281</v>
+        <v>156</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>282</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q23_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q23_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E1139EF2-F7C3-42E0-BA77-1C219E1F5161}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4055300-2EAB-41FE-802B-202B99036175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{69C6F8AE-1DA3-497A-9315-91A3C5D26D7D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8C840E4C-B504-4B3D-B3EC-3778EF1138DD}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -75,28 +75,28 @@
     <t>11,15%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
   </si>
   <si>
     <t>30,26%</t>
   </si>
   <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>36,83%</t>
   </si>
   <si>
     <t>16,12%</t>
   </si>
   <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>18,84%</t>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
   </si>
   <si>
     <t>Tercer Cuartil</t>
@@ -105,7 +105,7 @@
     <t>25,73%</t>
   </si>
   <si>
-    <t>22,49%</t>
+    <t>22,17%</t>
   </si>
   <si>
     <t>29,29%</t>
@@ -114,19 +114,19 @@
     <t>28,05%</t>
   </si>
   <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>34,94%</t>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
   </si>
   <si>
     <t>26,34%</t>
   </si>
   <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
+    <t>23,59%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
   </si>
   <si>
     <t>Segundo Cuartil</t>
@@ -135,28 +135,28 @@
     <t>15,5%</t>
   </si>
   <si>
-    <t>12,94%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
   </si>
   <si>
     <t>14,78%</t>
   </si>
   <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
   </si>
   <si>
     <t>15,31%</t>
   </si>
   <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
   </si>
   <si>
     <t>Primer Cuartil</t>
@@ -165,28 +165,28 @@
     <t>47,61%</t>
   </si>
   <si>
-    <t>43,45%</t>
-  </si>
-  <si>
-    <t>51,4%</t>
+    <t>43,27%</t>
+  </si>
+  <si>
+    <t>51,52%</t>
   </si>
   <si>
     <t>26,9%</t>
   </si>
   <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>32,97%</t>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
   </si>
   <si>
     <t>42,23%</t>
   </si>
   <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>45,71%</t>
+    <t>38,61%</t>
+  </si>
+  <si>
+    <t>45,64%</t>
   </si>
   <si>
     <t>100%</t>
@@ -198,712 +198,712 @@
     <t>9,13%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
   </si>
   <si>
     <t>17,25%</t>
   </si>
   <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
   </si>
   <si>
     <t>12,41%</t>
   </si>
   <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
   </si>
   <si>
     <t>32,37%</t>
   </si>
   <si>
-    <t>29,49%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
+    <t>29,14%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
   </si>
   <si>
     <t>34,57%</t>
   </si>
   <si>
-    <t>31,12%</t>
-  </si>
-  <si>
-    <t>38,35%</t>
+    <t>30,95%</t>
+  </si>
+  <si>
+    <t>38,31%</t>
   </si>
   <si>
     <t>33,26%</t>
   </si>
   <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>29,56%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>33,51%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>34,21%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>18,42%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>16,02%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>47,75%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>22,14%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>12,48%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>23,62%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>31,48%</t>
+  </si>
+  <si>
+    <t>37,4%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
     <t>30,93%</t>
   </si>
   <si>
-    <t>35,75%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
+    <t>34,32%</t>
   </si>
   <si>
     <t>21,54%</t>
   </si>
   <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>33,39%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>29,11%</t>
-  </si>
-  <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>22,13%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>23,95%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>33,77%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2012 (Tasa respuesta: 49,24%)</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>26,61%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>29,77%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>50,32%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>45,61%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>19,97%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>28,48%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>20,87%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>37,32%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>28,56%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>30,45%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>27,11%</t>
   </si>
   <si>
     <t>38,29%</t>
   </si>
   <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>38,02%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>23,89%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>23,31%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>15,81%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,72%</t>
-  </si>
-  <si>
-    <t>34,28%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>34,53%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>23,61%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>33,64%</t>
-  </si>
-  <si>
-    <t>38,21%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>29,91%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>34,48%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2012 (Tasa respuesta: 49,24%)</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
-  </si>
-  <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>31,53%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>34,14%</t>
+  </si>
+  <si>
+    <t>43,05%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>25,1%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>20,3%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>34,15%</t>
   </si>
   <si>
     <t>29,78%</t>
   </si>
   <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>20,64%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>42,29%</t>
-  </si>
-  <si>
-    <t>49,99%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>38,86%</t>
-  </si>
-  <si>
-    <t>45,02%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>23,79%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>19,84%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>28,89%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>15,75%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>36,99%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>34,2%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>30,65%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>18,7%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>45,85%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>43,62%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>13,09%</t>
-  </si>
-  <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>28,85%</t>
-  </si>
-  <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>31,35%</t>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
   </si>
   <si>
     <t>18,52%</t>
   </si>
   <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
+    <t>16,7%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
   </si>
   <si>
     <t>17,59%</t>
   </si>
   <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
   </si>
   <si>
     <t>18,16%</t>
   </si>
   <si>
-    <t>16,84%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
+    <t>16,9%</t>
   </si>
   <si>
     <t>36,51%</t>
   </si>
   <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
+    <t>38,68%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
   </si>
   <si>
     <t>33,32%</t>
   </si>
   <si>
-    <t>31,68%</t>
-  </si>
-  <si>
-    <t>35,11%</t>
+    <t>31,66%</t>
+  </si>
+  <si>
+    <t>35,09%</t>
   </si>
 </sst>
 </file>
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEFFF228-64F7-48CD-8D4E-5C6C9B715D8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE682E4-010C-460E-9945-30BD08D9A3D4}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1864,13 +1864,13 @@
         <v>190123</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>491</v>
@@ -1879,13 +1879,13 @@
         <v>496896</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,7 +1941,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1953,13 +1953,13 @@
         <v>39381</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H14" s="7">
         <v>41</v>
@@ -1968,13 +1968,13 @@
         <v>43754</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M14" s="7">
         <v>77</v>
@@ -1983,13 +1983,13 @@
         <v>83135</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,10 +2004,10 @@
         <v>108845</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>99</v>
@@ -2058,10 +2058,10 @@
         <v>106</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -2070,13 +2070,13 @@
         <v>32181</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -2085,10 +2085,10 @@
         <v>80860</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>113</v>
@@ -2142,7 +2142,7 @@
         <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>25</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2210,13 +2210,13 @@
         <v>192997</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>208</v>
@@ -2225,13 +2225,13 @@
         <v>218333</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>392</v>
@@ -2240,13 +2240,13 @@
         <v>411330</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,13 +2261,13 @@
         <v>569454</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>342</v>
@@ -2276,28 +2276,28 @@
         <v>352318</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>896</v>
       </c>
       <c r="N20" s="7">
-        <v>921771</v>
+        <v>921772</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,13 +2312,13 @@
         <v>385522</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>75</v>
+        <v>141</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H21" s="7">
         <v>176</v>
@@ -2327,13 +2327,13 @@
         <v>180432</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M21" s="7">
         <v>560</v>
@@ -2342,13 +2342,13 @@
         <v>565954</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,13 +2363,13 @@
         <v>641679</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>276</v>
@@ -2378,13 +2378,13 @@
         <v>278236</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>908</v>
@@ -2393,13 +2393,13 @@
         <v>919915</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2441,7 +2441,7 @@
         <v>2756</v>
       </c>
       <c r="N23" s="7">
-        <v>2818970</v>
+        <v>2818971</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
@@ -2455,7 +2455,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2474,7 +2474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF467585-9C58-44A0-B555-EC46F4765CFC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F8D82A-7010-48F2-9B3D-D1D21D118AE4}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2491,7 +2491,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2598,7 +2598,7 @@
         <v>100358</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>160</v>
@@ -2736,7 +2736,7 @@
         <v>184</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>73</v>
+        <v>185</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2751,13 @@
         <v>320933</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H7" s="7">
         <v>79</v>
@@ -2766,13 +2766,13 @@
         <v>85077</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>190</v>
+        <v>151</v>
       </c>
       <c r="M7" s="7">
         <v>386</v>
@@ -2870,13 +2870,13 @@
         <v>177838</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="M9" s="7">
         <v>326</v>
@@ -2885,13 +2885,13 @@
         <v>367340</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2906,13 @@
         <v>355816</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="H10" s="7">
         <v>251</v>
@@ -2921,13 +2921,13 @@
         <v>272576</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="M10" s="7">
         <v>591</v>
@@ -2936,13 +2936,13 @@
         <v>628392</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>208</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>209</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2957,13 @@
         <v>229247</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H11" s="7">
         <v>145</v>
@@ -2972,13 +2972,13 @@
         <v>156973</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="M11" s="7">
         <v>360</v>
@@ -2987,13 +2987,13 @@
         <v>386220</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>215</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,13 +3008,13 @@
         <v>403912</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="H12" s="7">
         <v>232</v>
@@ -3023,13 +3023,13 @@
         <v>251332</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>223</v>
       </c>
       <c r="M12" s="7">
         <v>611</v>
@@ -3038,13 +3038,13 @@
         <v>655244</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,7 +3100,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3112,13 +3112,13 @@
         <v>53144</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="H14" s="7">
         <v>46</v>
@@ -3127,13 +3127,13 @@
         <v>49913</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M14" s="7">
         <v>90</v>
@@ -3142,13 +3142,13 @@
         <v>103057</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,7 +3163,7 @@
         <v>94244</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>98</v>
+        <v>234</v>
       </c>
       <c r="F15" s="7" t="s">
         <v>235</v>
@@ -3181,10 +3181,10 @@
         <v>237</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>224</v>
+        <v>238</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="M15" s="7">
         <v>165</v>
@@ -3214,13 +3214,13 @@
         <v>48993</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>243</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -3229,13 +3229,13 @@
         <v>37204</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="K16" s="7" t="s">
-        <v>246</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>247</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -3244,13 +3244,13 @@
         <v>86196</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>248</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3265,13 @@
         <v>49750</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>251</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>252</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -3280,13 +3280,13 @@
         <v>40016</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>21</v>
       </c>
       <c r="M17" s="7">
         <v>75</v>
@@ -3295,13 +3295,13 @@
         <v>89766</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P17" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>256</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,13 +3369,13 @@
         <v>343004</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>259</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>276</v>
@@ -3390,7 +3390,7 @@
         <v>261</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>189</v>
+        <v>262</v>
       </c>
       <c r="M19" s="7">
         <v>575</v>
@@ -3399,13 +3399,13 @@
         <v>647402</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3420,13 @@
         <v>611230</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>155</v>
+        <v>268</v>
       </c>
       <c r="H20" s="7">
         <v>389</v>
@@ -3435,13 +3435,13 @@
         <v>417752</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="M20" s="7">
         <v>967</v>
@@ -3450,13 +3450,13 @@
         <v>1028982</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>173</v>
+        <v>272</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3471,13 @@
         <v>392871</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H21" s="7">
         <v>216</v>
@@ -3486,13 +3486,13 @@
         <v>234503</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="M21" s="7">
         <v>586</v>
@@ -3501,13 +3501,13 @@
         <v>627374</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>280</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,13 +3522,13 @@
         <v>774596</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H22" s="7">
         <v>344</v>
@@ -3537,13 +3537,13 @@
         <v>376424</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="M22" s="7">
         <v>1072</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q23_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q23_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D4055300-2EAB-41FE-802B-202B99036175}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B74F695B-8281-4093-A3BB-4B0F712AE627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8C840E4C-B504-4B3D-B3EC-3778EF1138DD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{623DA669-C9F3-4A31-8346-2212D865C014}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -75,28 +75,28 @@
     <t>11,15%</t>
   </si>
   <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>14,08%</t>
   </si>
   <si>
     <t>30,26%</t>
   </si>
   <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>36,83%</t>
+    <t>24,06%</t>
+  </si>
+  <si>
+    <t>37,25%</t>
   </si>
   <si>
     <t>16,12%</t>
   </si>
   <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
   </si>
   <si>
     <t>Tercer Cuartil</t>
@@ -105,28 +105,28 @@
     <t>25,73%</t>
   </si>
   <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>29,86%</t>
   </si>
   <si>
     <t>28,05%</t>
   </si>
   <si>
-    <t>22,26%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>34,78%</t>
   </si>
   <si>
     <t>26,34%</t>
   </si>
   <si>
-    <t>23,59%</t>
-  </si>
-  <si>
-    <t>29,68%</t>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
   </si>
   <si>
     <t>Segundo Cuartil</t>
@@ -138,25 +138,25 @@
     <t>12,75%</t>
   </si>
   <si>
-    <t>18,7%</t>
+    <t>18,33%</t>
   </si>
   <si>
     <t>14,78%</t>
   </si>
   <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
+    <t>10,31%</t>
+  </si>
+  <si>
+    <t>19,44%</t>
   </si>
   <si>
     <t>15,31%</t>
   </si>
   <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
   </si>
   <si>
     <t>Primer Cuartil</t>
@@ -165,745 +165,745 @@
     <t>47,61%</t>
   </si>
   <si>
-    <t>43,27%</t>
-  </si>
-  <si>
-    <t>51,52%</t>
+    <t>43,42%</t>
+  </si>
+  <si>
+    <t>51,84%</t>
   </si>
   <si>
     <t>26,9%</t>
   </si>
   <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>33,09%</t>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>33,27%</t>
   </si>
   <si>
     <t>42,23%</t>
   </si>
   <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>45,66%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>14,38%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>10,86%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>32,37%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>25,82%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>32,67%</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>33,28%</t>
+  </si>
+  <si>
+    <t>31,54%</t>
+  </si>
+  <si>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>34,09%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>31,45%</t>
+  </si>
+  <si>
+    <t>19,76%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>24,56%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>50,9%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>32,92%</t>
+  </si>
+  <si>
+    <t>47,6%</t>
+  </si>
+  <si>
+    <t>43,04%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>20,12%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>25,96%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>12,71%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>23,99%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>12,3%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>29,65%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>37,35%</t>
+  </si>
+  <si>
+    <t>32,7%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>34,53%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>21,72%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>33,59%</t>
+  </si>
+  <si>
+    <t>38,04%</t>
+  </si>
+  <si>
+    <t>27,03%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2012 (Tasa respuesta: 49,24%)</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>18,37%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>21,06%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>19,17%</t>
+  </si>
+  <si>
+    <t>29,99%</t>
+  </si>
+  <si>
+    <t>23,4%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>42,39%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>37,9%</t>
+  </si>
+  <si>
+    <t>42,14%</t>
+  </si>
+  <si>
+    <t>39,26%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>32,82%</t>
+  </si>
+  <si>
+    <t>31,74%</t>
+  </si>
+  <si>
+    <t>28,62%</t>
+  </si>
+  <si>
+    <t>35,33%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>31,35%</t>
+  </si>
+  <si>
+    <t>37,28%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>32,6%</t>
+  </si>
+  <si>
+    <t>32,16%</t>
+  </si>
+  <si>
+    <t>30,1%</t>
+  </si>
+  <si>
+    <t>21,59%</t>
+  </si>
+  <si>
+    <t>16,46%</t>
+  </si>
+  <si>
+    <t>28,44%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>30,75%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>27,29%</t>
+  </si>
+  <si>
+    <t>38,29%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>46,0%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>17,88%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>23,97%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>15,52%</t>
+  </si>
+  <si>
+    <t>23,17%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>20,17%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>30,94%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
+  </si>
+  <si>
+    <t>34,05%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>31,46%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>16,81%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>15,59%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>36,51%</t>
+  </si>
+  <si>
+    <t>34,25%</t>
+  </si>
+  <si>
     <t>38,61%</t>
   </si>
   <si>
-    <t>45,64%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>34,57%</t>
-  </si>
-  <si>
-    <t>30,95%</t>
-  </si>
-  <si>
-    <t>38,31%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>25,82%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>28,95%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>15,41%</t>
-  </si>
-  <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>32,67%</t>
-  </si>
-  <si>
-    <t>29,56%</t>
-  </si>
-  <si>
-    <t>36,09%</t>
-  </si>
-  <si>
-    <t>29,86%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>33,51%</t>
-  </si>
-  <si>
-    <t>31,54%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>34,21%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>18,42%</t>
-  </si>
-  <si>
-    <t>32,0%</t>
-  </si>
-  <si>
-    <t>19,76%</t>
-  </si>
-  <si>
-    <t>16,02%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>32,92%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>43,04%</t>
-  </si>
-  <si>
-    <t>38,04%</t>
-  </si>
-  <si>
-    <t>47,75%</t>
-  </si>
-  <si>
-    <t>20,12%</t>
-  </si>
-  <si>
-    <t>26,02%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>12,22%</t>
-  </si>
-  <si>
-    <t>23,5%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>22,14%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>12,48%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
-  </si>
-  <si>
-    <t>18,59%</t>
-  </si>
-  <si>
-    <t>23,62%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>37,4%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>34,32%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>17,53%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>35,85%</t>
-  </si>
-  <si>
-    <t>33,77%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>27,03%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>34,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2012 (Tasa respuesta: 49,24%)</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>35,13%</t>
-  </si>
-  <si>
-    <t>18,37%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>26,61%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>18,5%</t>
-  </si>
-  <si>
-    <t>29,77%</t>
-  </si>
-  <si>
-    <t>23,4%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>19,31%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>42,39%</t>
-  </si>
-  <si>
-    <t>50,32%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>42,14%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>45,61%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>19,97%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>27,38%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>31,74%</t>
-  </si>
-  <si>
-    <t>28,48%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>37,32%</t>
-  </si>
-  <si>
-    <t>26,32%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>32,16%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>34,25%</t>
-  </si>
-  <si>
-    <t>21,59%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>28,56%</t>
-  </si>
-  <si>
-    <t>23,99%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>30,45%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>27,11%</t>
-  </si>
-  <si>
-    <t>38,29%</t>
-  </si>
-  <si>
-    <t>32,52%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>38,89%</t>
-  </si>
-  <si>
-    <t>31,53%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>34,14%</t>
-  </si>
-  <si>
-    <t>43,05%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>25,1%</t>
-  </si>
-  <si>
-    <t>17,88%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>18,98%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>13,49%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>24,08%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>20,3%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>28,81%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>30,75%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
-  </si>
-  <si>
-    <t>34,15%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
     <t>28,24%</t>
   </si>
   <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>36,51%</t>
-  </si>
-  <si>
-    <t>38,68%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
+    <t>25,69%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
   </si>
   <si>
     <t>33,32%</t>
   </si>
   <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>35,09%</t>
+    <t>31,72%</t>
+  </si>
+  <si>
+    <t>34,95%</t>
   </si>
 </sst>
 </file>
@@ -1315,7 +1315,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABE682E4-010C-460E-9945-30BD08D9A3D4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90251276-696D-45C8-9165-11D09B6FB526}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1780,10 +1780,10 @@
         <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1798,13 +1798,13 @@
         <v>242484</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>113</v>
@@ -1813,13 +1813,13 @@
         <v>116624</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>354</v>
@@ -1828,13 +1828,13 @@
         <v>359108</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1849,13 +1849,13 @@
         <v>306774</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>189</v>
@@ -1864,13 +1864,13 @@
         <v>190123</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="M12" s="7">
         <v>491</v>
@@ -1879,13 +1879,13 @@
         <v>496896</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1941,7 +1941,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -1953,13 +1953,13 @@
         <v>39381</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H14" s="7">
         <v>41</v>
@@ -1968,13 +1968,13 @@
         <v>43754</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="M14" s="7">
         <v>77</v>
@@ -1983,13 +1983,13 @@
         <v>83135</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2004,13 +2004,13 @@
         <v>108845</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H15" s="7">
         <v>70</v>
@@ -2019,13 +2019,13 @@
         <v>72222</v>
       </c>
       <c r="J15" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L15" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M15" s="7">
         <v>176</v>
@@ -2034,13 +2034,13 @@
         <v>181066</v>
       </c>
       <c r="O15" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q15" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -2055,13 +2055,13 @@
         <v>48679</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>31</v>
@@ -2070,13 +2070,13 @@
         <v>32181</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>79</v>
@@ -2085,13 +2085,13 @@
         <v>80860</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2106,13 +2106,13 @@
         <v>45086</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>29</v>
@@ -2121,13 +2121,13 @@
         <v>30548</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>72</v>
@@ -2136,13 +2136,13 @@
         <v>75634</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2210,13 +2210,13 @@
         <v>192997</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H19" s="7">
         <v>208</v>
@@ -2225,13 +2225,13 @@
         <v>218333</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M19" s="7">
         <v>392</v>
@@ -2240,13 +2240,13 @@
         <v>411330</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2261,13 +2261,13 @@
         <v>569454</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H20" s="7">
         <v>342</v>
@@ -2276,13 +2276,13 @@
         <v>352318</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M20" s="7">
         <v>896</v>
@@ -2291,13 +2291,13 @@
         <v>921772</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2312,13 +2312,13 @@
         <v>385522</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>143</v>
+        <v>28</v>
       </c>
       <c r="H21" s="7">
         <v>176</v>
@@ -2327,13 +2327,13 @@
         <v>180432</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M21" s="7">
         <v>560</v>
@@ -2342,13 +2342,13 @@
         <v>565954</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2363,13 +2363,13 @@
         <v>641679</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>276</v>
@@ -2378,13 +2378,13 @@
         <v>278236</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M22" s="7">
         <v>908</v>
@@ -2393,13 +2393,13 @@
         <v>919915</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,7 +2455,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -2474,7 +2474,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F8D82A-7010-48F2-9B3D-D1D21D118AE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D546C65-3227-43B3-8449-294F6284F209}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2491,7 +2491,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2598,13 +2598,13 @@
         <v>100358</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>121</v>
+        <v>158</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H4" s="7">
         <v>71</v>
@@ -2613,13 +2613,13 @@
         <v>76646</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>163</v>
-      </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>64</v>
       </c>
       <c r="M4" s="7">
         <v>159</v>
@@ -2628,13 +2628,13 @@
         <v>177005</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2649,13 +2649,13 @@
         <v>161170</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H5" s="7">
         <v>62</v>
@@ -2664,13 +2664,13 @@
         <v>64269</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M5" s="7">
         <v>211</v>
@@ -2679,13 +2679,13 @@
         <v>225439</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2700,13 +2700,13 @@
         <v>114632</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>178</v>
+        <v>114</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H6" s="7">
         <v>37</v>
@@ -2715,13 +2715,13 @@
         <v>40325</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="M6" s="7">
         <v>145</v>
@@ -2730,13 +2730,13 @@
         <v>154958</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>185</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,13 +2751,13 @@
         <v>320933</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H7" s="7">
         <v>79</v>
@@ -2766,13 +2766,13 @@
         <v>85077</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="M7" s="7">
         <v>386</v>
@@ -2781,13 +2781,13 @@
         <v>406010</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2855,13 +2855,13 @@
         <v>189502</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>195</v>
+        <v>19</v>
       </c>
       <c r="H9" s="7">
         <v>159</v>
@@ -2870,13 +2870,13 @@
         <v>177838</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="M9" s="7">
         <v>326</v>
@@ -2885,13 +2885,13 @@
         <v>367340</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,13 +2906,13 @@
         <v>355816</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H10" s="7">
         <v>251</v>
@@ -2921,13 +2921,13 @@
         <v>272576</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="M10" s="7">
         <v>591</v>
@@ -2936,13 +2936,13 @@
         <v>628392</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>101</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,13 +2957,13 @@
         <v>229247</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>210</v>
+        <v>120</v>
       </c>
       <c r="H11" s="7">
         <v>145</v>
@@ -2972,13 +2972,13 @@
         <v>156973</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M11" s="7">
         <v>360</v>
@@ -2987,13 +2987,13 @@
         <v>386220</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,13 +3008,13 @@
         <v>403912</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H12" s="7">
         <v>232</v>
@@ -3023,13 +3023,13 @@
         <v>251332</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>86</v>
+        <v>217</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="M12" s="7">
         <v>611</v>
@@ -3038,13 +3038,13 @@
         <v>655244</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3100,7 +3100,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>10</v>
@@ -3112,13 +3112,13 @@
         <v>53144</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H14" s="7">
         <v>46</v>
@@ -3127,13 +3127,13 @@
         <v>49913</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>228</v>
+        <v>115</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="M14" s="7">
         <v>90</v>
@@ -3142,13 +3142,13 @@
         <v>103057</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,13 +3163,13 @@
         <v>94244</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H15" s="7">
         <v>76</v>
@@ -3178,13 +3178,13 @@
         <v>80908</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="M15" s="7">
         <v>165</v>
@@ -3193,13 +3193,13 @@
         <v>175152</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>241</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -3214,13 +3214,13 @@
         <v>48993</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>182</v>
+        <v>143</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="H16" s="7">
         <v>34</v>
@@ -3229,13 +3229,13 @@
         <v>37204</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>110</v>
+        <v>242</v>
       </c>
       <c r="M16" s="7">
         <v>81</v>
@@ -3244,13 +3244,13 @@
         <v>86196</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3265,13 +3265,13 @@
         <v>49750</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H17" s="7">
         <v>33</v>
@@ -3280,13 +3280,13 @@
         <v>40016</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="M17" s="7">
         <v>75</v>
@@ -3295,13 +3295,13 @@
         <v>89766</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,13 +3369,13 @@
         <v>343004</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>259</v>
+        <v>192</v>
       </c>
       <c r="H19" s="7">
         <v>276</v>
@@ -3384,13 +3384,13 @@
         <v>304397</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="M19" s="7">
         <v>575</v>
@@ -3399,13 +3399,13 @@
         <v>647402</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3420,13 @@
         <v>611230</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="H20" s="7">
         <v>389</v>
@@ -3435,13 +3435,13 @@
         <v>417752</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="M20" s="7">
         <v>967</v>
@@ -3450,13 +3450,13 @@
         <v>1028982</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,13 +3471,13 @@
         <v>392871</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="H21" s="7">
         <v>216</v>
@@ -3486,13 +3486,13 @@
         <v>234503</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="M21" s="7">
         <v>586</v>
@@ -3501,13 +3501,13 @@
         <v>627374</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>142</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,13 +3522,13 @@
         <v>774596</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>157</v>
+        <v>281</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="H22" s="7">
         <v>344</v>
@@ -3537,13 +3537,13 @@
         <v>376424</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>268</v>
       </c>
       <c r="M22" s="7">
         <v>1072</v>
@@ -3614,7 +3614,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q23_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q23_R-Estudios-trans_orig.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B74F695B-8281-4093-A3BB-4B0F712AE627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64963C94-DD1C-46FB-A73C-B9E123B20DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{623DA669-C9F3-4A31-8346-2212D865C014}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{5ACA49B6-56DB-4299-8859-531E2CCE46D3}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
+    <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="540">
   <si>
     <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2007 (Tasa respuesta: 42,33%)</t>
   </si>
@@ -904,6 +906,759 @@
   </si>
   <si>
     <t>34,95%</t>
+  </si>
+  <si>
+    <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2016 (Tasa respuesta: 3,93%)</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>29,4%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>60,41%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>58,26%</t>
+  </si>
+  <si>
+    <t>41,39%</t>
+  </si>
+  <si>
+    <t>73,12%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>60,52%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
+  </si>
+  <si>
+    <t>73,93%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>19,26%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
+  </si>
+  <si>
+    <t>23,71%</t>
+  </si>
+  <si>
+    <t>39,22%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>14,73%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>21,44%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>53,2%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>61,91%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>62,17%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
+  </si>
+  <si>
+    <t>65,24%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>49,31%</t>
+  </si>
+  <si>
+    <t>37,09%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>39,52%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>48,84%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>36,3%</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>51,69%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>32,0%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>48,44%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>29,38%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>28,63%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>43,45%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>45,56%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>57,98%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>55,52%</t>
+  </si>
+  <si>
+    <t>Población según edad a la que empezó a fumar tabaco en cuartiles en 2023 (Tasa respuesta: 34,37%)</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>27,79%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>37,91%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>50,83%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>41,97%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>29,96%</t>
+  </si>
+  <si>
+    <t>36,29%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>39,93%</t>
+  </si>
+  <si>
+    <t>29,97%</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>26,82%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>30,46%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>26,43%</t>
+  </si>
+  <si>
+    <t>20,55%</t>
+  </si>
+  <si>
+    <t>17,15%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>18,85%</t>
+  </si>
+  <si>
+    <t>21,62%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>35,26%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>62,57%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>23,61%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>29,24%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>35,4%</t>
+  </si>
+  <si>
+    <t>24,18%</t>
+  </si>
+  <si>
+    <t>21,93%</t>
+  </si>
+  <si>
+    <t>27,13%</t>
+  </si>
+  <si>
+    <t>27,38%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
   </si>
 </sst>
 </file>
@@ -1315,7 +2070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90251276-696D-45C8-9165-11D09B6FB526}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB35255-1930-4D52-A3E4-513455E1FB52}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2184,7 +2939,7 @@
         <v>404</v>
       </c>
       <c r="N18" s="7">
-        <v>420696</v>
+        <v>420695</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>50</v>
@@ -2360,7 +3115,7 @@
         <v>632</v>
       </c>
       <c r="D22" s="7">
-        <v>641679</v>
+        <v>641678</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>147</v>
@@ -2411,7 +3166,7 @@
         <v>1754</v>
       </c>
       <c r="D23" s="7">
-        <v>1789652</v>
+        <v>1789651</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>50</v>
@@ -2474,7 +3229,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D546C65-3227-43B3-8449-294F6284F209}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27452CCC-7835-4184-AF66-64D3960C56CF}">
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3447,7 +4202,7 @@
         <v>967</v>
       </c>
       <c r="N20" s="7">
-        <v>1028982</v>
+        <v>1028983</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>268</v>
@@ -3600,7 +4355,2325 @@
         <v>3200</v>
       </c>
       <c r="N23" s="7">
-        <v>3454778</v>
+        <v>3454779</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15818A53-6ABC-4BF6-ABBD-A6AC1E87DD4F}">
+  <dimension ref="A1:Q24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>812</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="M4" s="7">
+        <v>1</v>
+      </c>
+      <c r="N4" s="7">
+        <v>812</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7">
+        <v>6747</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1164</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="M5" s="7">
+        <v>8</v>
+      </c>
+      <c r="N5" s="7">
+        <v>7911</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7">
+        <v>9</v>
+      </c>
+      <c r="D6" s="7">
+        <v>9145</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7">
+        <v>1164</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="M6" s="7">
+        <v>10</v>
+      </c>
+      <c r="N6" s="7">
+        <v>10309</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="7">
+        <v>22</v>
+      </c>
+      <c r="D7" s="7">
+        <v>23317</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="H7" s="7">
+        <v>6</v>
+      </c>
+      <c r="I7" s="7">
+        <v>5857</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="M7" s="7">
+        <v>28</v>
+      </c>
+      <c r="N7" s="7">
+        <v>29174</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7">
+        <v>39</v>
+      </c>
+      <c r="D8" s="7">
+        <v>40020</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="7">
+        <v>8</v>
+      </c>
+      <c r="I8" s="7">
+        <v>8186</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="7">
+        <v>47</v>
+      </c>
+      <c r="N8" s="7">
+        <v>48206</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7">
+        <v>14</v>
+      </c>
+      <c r="D9" s="7">
+        <v>16022</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="H9" s="7">
+        <v>4</v>
+      </c>
+      <c r="I9" s="7">
+        <v>3839</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="M9" s="7">
+        <v>18</v>
+      </c>
+      <c r="N9" s="7">
+        <v>19861</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7">
+        <v>22</v>
+      </c>
+      <c r="D10" s="7">
+        <v>24175</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H10" s="7">
+        <v>10</v>
+      </c>
+      <c r="I10" s="7">
+        <v>10091</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="M10" s="7">
+        <v>32</v>
+      </c>
+      <c r="N10" s="7">
+        <v>34266</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="7">
+        <v>19</v>
+      </c>
+      <c r="D11" s="7">
+        <v>18457</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H11" s="7">
+        <v>9</v>
+      </c>
+      <c r="I11" s="7">
+        <v>9153</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="M11" s="7">
+        <v>28</v>
+      </c>
+      <c r="N11" s="7">
+        <v>27610</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="7">
+        <v>63</v>
+      </c>
+      <c r="D12" s="7">
+        <v>66667</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H12" s="7">
+        <v>19</v>
+      </c>
+      <c r="I12" s="7">
+        <v>19484</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="M12" s="7">
+        <v>82</v>
+      </c>
+      <c r="N12" s="7">
+        <v>86151</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>118</v>
+      </c>
+      <c r="D13" s="7">
+        <v>125321</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="7">
+        <v>42</v>
+      </c>
+      <c r="I13" s="7">
+        <v>42568</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="7">
+        <v>160</v>
+      </c>
+      <c r="N13" s="7">
+        <v>167889</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7">
+        <v>1</v>
+      </c>
+      <c r="D14" s="7">
+        <v>1022</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="H14" s="7">
+        <v>3</v>
+      </c>
+      <c r="I14" s="7">
+        <v>2874</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="M14" s="7">
+        <v>4</v>
+      </c>
+      <c r="N14" s="7">
+        <v>3896</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="7">
+        <v>11</v>
+      </c>
+      <c r="D15" s="7">
+        <v>13197</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="H15" s="7">
+        <v>5</v>
+      </c>
+      <c r="I15" s="7">
+        <v>4772</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="M15" s="7">
+        <v>16</v>
+      </c>
+      <c r="N15" s="7">
+        <v>17969</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="7">
+        <v>6</v>
+      </c>
+      <c r="D16" s="7">
+        <v>6029</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="H16" s="7">
+        <v>5</v>
+      </c>
+      <c r="I16" s="7">
+        <v>5049</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="M16" s="7">
+        <v>11</v>
+      </c>
+      <c r="N16" s="7">
+        <v>11078</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="7">
+        <v>8</v>
+      </c>
+      <c r="D17" s="7">
+        <v>8946</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="H17" s="7">
+        <v>6</v>
+      </c>
+      <c r="I17" s="7">
+        <v>6557</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="M17" s="7">
+        <v>14</v>
+      </c>
+      <c r="N17" s="7">
+        <v>15503</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>383</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>26</v>
+      </c>
+      <c r="D18" s="7">
+        <v>29193</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="7">
+        <v>19</v>
+      </c>
+      <c r="I18" s="7">
+        <v>19252</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="7">
+        <v>45</v>
+      </c>
+      <c r="N18" s="7">
+        <v>48445</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>16</v>
+      </c>
+      <c r="D19" s="7">
+        <v>17856</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="H19" s="7">
+        <v>7</v>
+      </c>
+      <c r="I19" s="7">
+        <v>6713</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="M19" s="7">
+        <v>23</v>
+      </c>
+      <c r="N19" s="7">
+        <v>24570</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>40</v>
+      </c>
+      <c r="D20" s="7">
+        <v>44118</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="H20" s="7">
+        <v>16</v>
+      </c>
+      <c r="I20" s="7">
+        <v>16027</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="M20" s="7">
+        <v>56</v>
+      </c>
+      <c r="N20" s="7">
+        <v>60146</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="7">
+        <v>34</v>
+      </c>
+      <c r="D21" s="7">
+        <v>33630</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="H21" s="7">
+        <v>15</v>
+      </c>
+      <c r="I21" s="7">
+        <v>15366</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="M21" s="7">
+        <v>49</v>
+      </c>
+      <c r="N21" s="7">
+        <v>48997</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="7">
+        <v>93</v>
+      </c>
+      <c r="D22" s="7">
+        <v>98930</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="H22" s="7">
+        <v>31</v>
+      </c>
+      <c r="I22" s="7">
+        <v>31898</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="M22" s="7">
+        <v>124</v>
+      </c>
+      <c r="N22" s="7">
+        <v>130828</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>183</v>
+      </c>
+      <c r="D23" s="7">
+        <v>194534</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="7">
+        <v>69</v>
+      </c>
+      <c r="I23" s="7">
+        <v>70005</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="7">
+        <v>252</v>
+      </c>
+      <c r="N23" s="7">
+        <v>264540</v>
+      </c>
+      <c r="O23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q23" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="A19:A23"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A4:A8"/>
+    <mergeCell ref="A9:A13"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7927668A-AD9F-4C29-A380-938CF3A7C887}">
+  <dimension ref="A1:Q24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" sqref="A1:B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="17" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="7">
+        <v>36</v>
+      </c>
+      <c r="D4" s="7">
+        <v>26991</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="H4" s="7">
+        <v>47</v>
+      </c>
+      <c r="I4" s="7">
+        <v>25677</v>
+      </c>
+      <c r="J4" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="M4" s="7">
+        <v>83</v>
+      </c>
+      <c r="N4" s="7">
+        <v>52668</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="7">
+        <v>61</v>
+      </c>
+      <c r="D5" s="7">
+        <v>47740</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="H5" s="7">
+        <v>58</v>
+      </c>
+      <c r="I5" s="7">
+        <v>35942</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="M5" s="7">
+        <v>119</v>
+      </c>
+      <c r="N5" s="7">
+        <v>83682</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="7">
+        <v>90</v>
+      </c>
+      <c r="D6" s="7">
+        <v>64587</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="H6" s="7">
+        <v>41</v>
+      </c>
+      <c r="I6" s="7">
+        <v>23490</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="M6" s="7">
+        <v>131</v>
+      </c>
+      <c r="N6" s="7">
+        <v>88078</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="7">
+        <v>201</v>
+      </c>
+      <c r="D7" s="7">
+        <v>161593</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>446</v>
+      </c>
+      <c r="H7" s="7">
+        <v>52</v>
+      </c>
+      <c r="I7" s="7">
+        <v>32050</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="M7" s="7">
+        <v>253</v>
+      </c>
+      <c r="N7" s="7">
+        <v>193643</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="7">
+        <v>388</v>
+      </c>
+      <c r="D8" s="7">
+        <v>300912</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H8" s="7">
+        <v>198</v>
+      </c>
+      <c r="I8" s="7">
+        <v>117159</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="7">
+        <v>586</v>
+      </c>
+      <c r="N8" s="7">
+        <v>418071</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="7">
+        <v>142</v>
+      </c>
+      <c r="D9" s="7">
+        <v>133447</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H9" s="7">
+        <v>203</v>
+      </c>
+      <c r="I9" s="7">
+        <v>121326</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="M9" s="7">
+        <v>345</v>
+      </c>
+      <c r="N9" s="7">
+        <v>254773</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="7">
+        <v>237</v>
+      </c>
+      <c r="D10" s="7">
+        <v>243798</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="H10" s="7">
+        <v>295</v>
+      </c>
+      <c r="I10" s="7">
+        <v>201004</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>464</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="M10" s="7">
+        <v>532</v>
+      </c>
+      <c r="N10" s="7">
+        <v>444802</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>466</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="7">
+        <v>233</v>
+      </c>
+      <c r="D11" s="7">
+        <v>473748</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>469</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>470</v>
+      </c>
+      <c r="H11" s="7">
+        <v>239</v>
+      </c>
+      <c r="I11" s="7">
+        <v>175083</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>471</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>472</v>
+      </c>
+      <c r="M11" s="7">
+        <v>472</v>
+      </c>
+      <c r="N11" s="7">
+        <v>648831</v>
+      </c>
+      <c r="O11" s="7" t="s">
+        <v>473</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>474</v>
+      </c>
+      <c r="Q11" s="7" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="7">
+        <v>286</v>
+      </c>
+      <c r="D12" s="7">
+        <v>277869</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>476</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" s="7">
+        <v>219</v>
+      </c>
+      <c r="I12" s="7">
+        <v>161820</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>477</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>478</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>479</v>
+      </c>
+      <c r="M12" s="7">
+        <v>505</v>
+      </c>
+      <c r="N12" s="7">
+        <v>439688</v>
+      </c>
+      <c r="O12" s="7" t="s">
+        <v>443</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="7">
+        <v>898</v>
+      </c>
+      <c r="D13" s="7">
+        <v>1128861</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H13" s="7">
+        <v>956</v>
+      </c>
+      <c r="I13" s="7">
+        <v>659233</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M13" s="7">
+        <v>1854</v>
+      </c>
+      <c r="N13" s="7">
+        <v>1788095</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="7">
+        <v>74</v>
+      </c>
+      <c r="D14" s="7">
+        <v>70889</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>481</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>482</v>
+      </c>
+      <c r="H14" s="7">
+        <v>90</v>
+      </c>
+      <c r="I14" s="7">
+        <v>57907</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>483</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="M14" s="7">
+        <v>164</v>
+      </c>
+      <c r="N14" s="7">
+        <v>128796</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>486</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>487</v>
+      </c>
+      <c r="Q14" s="7" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="7">
+        <v>79</v>
+      </c>
+      <c r="D15" s="7">
+        <v>68928</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>490</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>491</v>
+      </c>
+      <c r="H15" s="7">
+        <v>96</v>
+      </c>
+      <c r="I15" s="7">
+        <v>62170</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>492</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>493</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>494</v>
+      </c>
+      <c r="M15" s="7">
+        <v>175</v>
+      </c>
+      <c r="N15" s="7">
+        <v>131098</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>495</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="7">
+        <v>52</v>
+      </c>
+      <c r="D16" s="7">
+        <v>49451</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>496</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>497</v>
+      </c>
+      <c r="H16" s="7">
+        <v>48</v>
+      </c>
+      <c r="I16" s="7">
+        <v>32579</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>498</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>499</v>
+      </c>
+      <c r="M16" s="7">
+        <v>100</v>
+      </c>
+      <c r="N16" s="7">
+        <v>82030</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>467</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="7">
+        <v>57</v>
+      </c>
+      <c r="D17" s="7">
+        <v>47887</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>502</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>503</v>
+      </c>
+      <c r="H17" s="7">
+        <v>60</v>
+      </c>
+      <c r="I17" s="7">
+        <v>40554</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>504</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>505</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>506</v>
+      </c>
+      <c r="M17" s="7">
+        <v>117</v>
+      </c>
+      <c r="N17" s="7">
+        <v>88442</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>507</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>508</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
+        <v>262</v>
+      </c>
+      <c r="D18" s="7">
+        <v>237155</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="7">
+        <v>294</v>
+      </c>
+      <c r="I18" s="7">
+        <v>193210</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="7">
+        <v>556</v>
+      </c>
+      <c r="N18" s="7">
+        <v>430365</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>252</v>
+      </c>
+      <c r="D19" s="7">
+        <v>231327</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>509</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>510</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H19" s="7">
+        <v>340</v>
+      </c>
+      <c r="I19" s="7">
+        <v>204910</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>511</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>512</v>
+      </c>
+      <c r="M19" s="7">
+        <v>592</v>
+      </c>
+      <c r="N19" s="7">
+        <v>436237</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>513</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>514</v>
+      </c>
+      <c r="Q19" s="7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="7">
+        <v>377</v>
+      </c>
+      <c r="D20" s="7">
+        <v>360466</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>516</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>517</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>518</v>
+      </c>
+      <c r="H20" s="7">
+        <v>449</v>
+      </c>
+      <c r="I20" s="7">
+        <v>299116</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>519</v>
+      </c>
+      <c r="L20" s="7" t="s">
+        <v>465</v>
+      </c>
+      <c r="M20" s="7">
+        <v>826</v>
+      </c>
+      <c r="N20" s="7">
+        <v>659582</v>
+      </c>
+      <c r="O20" s="7" t="s">
+        <v>520</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>521</v>
+      </c>
+      <c r="Q20" s="7" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" s="7">
+        <v>375</v>
+      </c>
+      <c r="D21" s="7">
+        <v>587786</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>523</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>524</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>525</v>
+      </c>
+      <c r="H21" s="7">
+        <v>328</v>
+      </c>
+      <c r="I21" s="7">
+        <v>231153</v>
+      </c>
+      <c r="J21" s="7" t="s">
+        <v>526</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>527</v>
+      </c>
+      <c r="L21" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="M21" s="7">
+        <v>703</v>
+      </c>
+      <c r="N21" s="7">
+        <v>818938</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>528</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="7">
+        <v>544</v>
+      </c>
+      <c r="D22" s="7">
+        <v>487349</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>531</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>532</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>533</v>
+      </c>
+      <c r="H22" s="7">
+        <v>331</v>
+      </c>
+      <c r="I22" s="7">
+        <v>234424</v>
+      </c>
+      <c r="J22" s="7" t="s">
+        <v>534</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>535</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="M22" s="7">
+        <v>875</v>
+      </c>
+      <c r="N22" s="7">
+        <v>721773</v>
+      </c>
+      <c r="O22" s="7" t="s">
+        <v>537</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>538</v>
+      </c>
+      <c r="Q22" s="7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="7">
+        <v>1548</v>
+      </c>
+      <c r="D23" s="7">
+        <v>1666928</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1448</v>
+      </c>
+      <c r="I23" s="7">
+        <v>969603</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="7">
+        <v>2996</v>
+      </c>
+      <c r="N23" s="7">
+        <v>2636530</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>50</v>
